--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2788.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2788.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169240537660343</v>
+        <v>1.166610598564148</v>
       </c>
       <c r="B1">
-        <v>2.433211041951893</v>
+        <v>1.623699307441711</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.873116731643677</v>
       </c>
       <c r="D1">
-        <v>2.36836499294787</v>
+        <v>3.891113996505737</v>
       </c>
       <c r="E1">
-        <v>1.231891287993497</v>
+        <v>1.56290602684021</v>
       </c>
     </row>
   </sheetData>
